--- a/Racecard_20250413_4.xlsx
+++ b/Racecard_20250413_4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="309">
   <si>
     <t>日期</t>
   </si>
@@ -113,12 +113,867 @@
   </si>
   <si>
     <t>進口類別</t>
+  </si>
+  <si>
+    <t>上次總場次</t>
+  </si>
+  <si>
+    <t>上次日期</t>
+  </si>
+  <si>
+    <t>上次班次</t>
+  </si>
+  <si>
+    <t>上次路程</t>
+  </si>
+  <si>
+    <t>上次名次</t>
+  </si>
+  <si>
+    <t>上次騎師</t>
+  </si>
+  <si>
+    <t>上次賠率</t>
+  </si>
+  <si>
+    <t>上次負磅</t>
+  </si>
+  <si>
+    <t>上次負磅 +/-</t>
+  </si>
+  <si>
+    <t>上次檔位</t>
+  </si>
+  <si>
+    <t>上次檔位 +/-</t>
+  </si>
+  <si>
+    <t>上次賽事時間1</t>
+  </si>
+  <si>
+    <t>上次賽事時間2</t>
+  </si>
+  <si>
+    <t>上次賽事時間3</t>
+  </si>
+  <si>
+    <t>上次賽事時間4</t>
+  </si>
+  <si>
+    <t>上次賽事時間5</t>
+  </si>
+  <si>
+    <t>上次賽事時間6</t>
+  </si>
+  <si>
+    <t>上次完成時間</t>
+  </si>
+  <si>
+    <t>上次第 1 段</t>
+  </si>
+  <si>
+    <t>上次第 2 段</t>
+  </si>
+  <si>
+    <t>上次第 3 段</t>
+  </si>
+  <si>
+    <t>上次第 4 段</t>
+  </si>
+  <si>
+    <t>上次第 5 段</t>
+  </si>
+  <si>
+    <t>上次第 6 段</t>
+  </si>
+  <si>
+    <t>上次最後 800</t>
+  </si>
+  <si>
+    <t>上次調整基數</t>
+  </si>
+  <si>
+    <t>上次調整後最後 800</t>
+  </si>
+  <si>
+    <t>上次調整後完成時間</t>
+  </si>
+  <si>
+    <t>前次總場次</t>
+  </si>
+  <si>
+    <t>前次日期</t>
+  </si>
+  <si>
+    <t>前次班次</t>
+  </si>
+  <si>
+    <t>前次路程</t>
+  </si>
+  <si>
+    <t>前次名次</t>
+  </si>
+  <si>
+    <t>前次騎師</t>
+  </si>
+  <si>
+    <t>前次賠率</t>
+  </si>
+  <si>
+    <t>前次負磅</t>
+  </si>
+  <si>
+    <t>前次負磅 +/-</t>
+  </si>
+  <si>
+    <t>前次檔位</t>
+  </si>
+  <si>
+    <t>前次檔位 +/-</t>
+  </si>
+  <si>
+    <t>前次賽事時間1</t>
+  </si>
+  <si>
+    <t>前次賽事時間2</t>
+  </si>
+  <si>
+    <t>前次賽事時間3</t>
+  </si>
+  <si>
+    <t>前次賽事時間4</t>
+  </si>
+  <si>
+    <t>前次賽事時間5</t>
+  </si>
+  <si>
+    <t>前次賽事時間6</t>
+  </si>
+  <si>
+    <t>前次完成時間</t>
+  </si>
+  <si>
+    <t>前次第 1 段</t>
+  </si>
+  <si>
+    <t>前次第 2 段</t>
+  </si>
+  <si>
+    <t>前次第 3 段</t>
+  </si>
+  <si>
+    <t>前次第 4 段</t>
+  </si>
+  <si>
+    <t>前次第 5 段</t>
+  </si>
+  <si>
+    <t>前次第 6 段</t>
+  </si>
+  <si>
+    <t>前次最後 800</t>
+  </si>
+  <si>
+    <t>前次調整基數</t>
+  </si>
+  <si>
+    <t>前次調整後最後 800</t>
+  </si>
+  <si>
+    <t>前次調整後完成時間</t>
+  </si>
+  <si>
+    <t>馬名2</t>
+  </si>
+  <si>
+    <t>上次調整後完成時間2</t>
+  </si>
+  <si>
+    <t>上次賽事</t>
+  </si>
+  <si>
+    <t>前次調整後完成時間2</t>
+  </si>
+  <si>
+    <t>前次賽事</t>
+  </si>
+  <si>
+    <t>2次調整後平均時間</t>
+  </si>
+  <si>
+    <t>上次調整後完成秒速</t>
+  </si>
+  <si>
+    <t>前次調整後完成秒速</t>
+  </si>
+  <si>
+    <t>2次調整後平均秒速</t>
+  </si>
+  <si>
+    <t>2次較快完成秒速</t>
+  </si>
+  <si>
+    <t>ST</t>
+  </si>
+  <si>
+    <t>草地</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "C" 賽道</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 第四班</t>
+  </si>
+  <si>
+    <t>2/2/2/2/11/7</t>
+  </si>
+  <si>
+    <t>4/7/7/7/10/2</t>
+  </si>
+  <si>
+    <t>10/9/11/13</t>
+  </si>
+  <si>
+    <t>4/2</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>8/3/7/4/8/9</t>
+  </si>
+  <si>
+    <t>12/5/13</t>
+  </si>
+  <si>
+    <t>8/7/8</t>
+  </si>
+  <si>
+    <t>6/8/6/8/4/7</t>
+  </si>
+  <si>
+    <t>快樂高球</t>
+  </si>
+  <si>
+    <t>花果猴王</t>
+  </si>
+  <si>
+    <t>赤霞</t>
+  </si>
+  <si>
+    <t>魅影戈飛</t>
+  </si>
+  <si>
+    <t>錢程萬里</t>
+  </si>
+  <si>
+    <t>金多囍</t>
+  </si>
+  <si>
+    <t>可靠大師</t>
+  </si>
+  <si>
+    <t>精益大師</t>
+  </si>
+  <si>
+    <t>籐王駒</t>
+  </si>
+  <si>
+    <t>加州本事</t>
+  </si>
+  <si>
+    <t>新力驕</t>
+  </si>
+  <si>
+    <t>風采人生</t>
+  </si>
+  <si>
+    <t>J222</t>
+  </si>
+  <si>
+    <t>H455</t>
+  </si>
+  <si>
+    <t>K267</t>
+  </si>
+  <si>
+    <t>K183</t>
+  </si>
+  <si>
+    <t>K212</t>
+  </si>
+  <si>
+    <t>K272</t>
+  </si>
+  <si>
+    <t>K283</t>
+  </si>
+  <si>
+    <t>H134</t>
+  </si>
+  <si>
+    <t>K143</t>
+  </si>
+  <si>
+    <t>J370</t>
+  </si>
+  <si>
+    <t>J223</t>
+  </si>
+  <si>
+    <t>J366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+布文
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+鍾易禮 (-3)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+楊明綸
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+艾兆禮
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+梁家俊
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+周俊樂 (-2)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+潘頓
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+黃寶妮 (-10)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+潘明輝
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+蔡明紹
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+霍宏聲
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+奧爾民
+</t>
+  </si>
+  <si>
+    <t>羅富全</t>
+  </si>
+  <si>
+    <t>告東尼</t>
+  </si>
+  <si>
+    <t>鄭俊偉</t>
+  </si>
+  <si>
+    <t>姚本輝</t>
+  </si>
+  <si>
+    <t>丁冠豪</t>
+  </si>
+  <si>
+    <t>伍鵬志</t>
+  </si>
+  <si>
+    <t>大衛希斯</t>
+  </si>
+  <si>
+    <t>葉楚航</t>
+  </si>
+  <si>
+    <t>文家良</t>
+  </si>
+  <si>
+    <t>巫偉傑</t>
+  </si>
+  <si>
+    <t>蘇偉賢</t>
+  </si>
+  <si>
+    <t>容天鵬</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>-2</t>
+  </si>
+  <si>
+    <t>-3</t>
+  </si>
+  <si>
+    <t>1.08.91</t>
+  </si>
+  <si>
+    <t>1.09.22</t>
+  </si>
+  <si>
+    <t>1.10.59</t>
+  </si>
+  <si>
+    <t>1.09.01</t>
+  </si>
+  <si>
+    <t>1.10.33</t>
+  </si>
+  <si>
+    <t>1.10.06</t>
+  </si>
+  <si>
+    <t>1.09.09</t>
+  </si>
+  <si>
+    <t>閹</t>
+  </si>
+  <si>
+    <t>雌</t>
+  </si>
+  <si>
+    <t>1,117,350</t>
+  </si>
+  <si>
+    <t>70,200</t>
+  </si>
+  <si>
+    <t>315,900</t>
+  </si>
+  <si>
+    <t>879,840</t>
+  </si>
+  <si>
+    <t>40,950</t>
+  </si>
+  <si>
+    <t>154,200</t>
+  </si>
+  <si>
+    <t>* 1</t>
+  </si>
+  <si>
+    <t>+ 1</t>
+  </si>
+  <si>
+    <t>+ * 1</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>H/TT</t>
+  </si>
+  <si>
+    <t>XB</t>
+  </si>
+  <si>
+    <t>TT1</t>
+  </si>
+  <si>
+    <t>B2/TT</t>
+  </si>
+  <si>
+    <t>B1/TT1</t>
+  </si>
+  <si>
+    <t>CP1/TT</t>
+  </si>
+  <si>
+    <t>黃進達</t>
+  </si>
+  <si>
+    <t>張漢傑</t>
+  </si>
+  <si>
+    <t>有款仕團體</t>
+  </si>
+  <si>
+    <t>譚國章先生及夫人</t>
+  </si>
+  <si>
+    <t>大衛團體</t>
+  </si>
+  <si>
+    <t>趙振明、鄭則華與羅志賢</t>
+  </si>
+  <si>
+    <t>Arthur Antonio da Silva, Betty da Silva &amp; Teresa Marie da Silva</t>
+  </si>
+  <si>
+    <t>鄭穩偉與鄭芷欣</t>
+  </si>
+  <si>
+    <t>王定波</t>
+  </si>
+  <si>
+    <t>梁樂皓玲</t>
+  </si>
+  <si>
+    <t>黃良柏</t>
+  </si>
+  <si>
+    <t>23/24 容天鵬練馬師賽馬團體</t>
+  </si>
+  <si>
+    <t>Pariah</t>
+  </si>
+  <si>
+    <t>Capitalist</t>
+  </si>
+  <si>
+    <t>Starspangledbanner</t>
+  </si>
+  <si>
+    <t>Hellbent</t>
+  </si>
+  <si>
+    <t>Charm Spirit</t>
+  </si>
+  <si>
+    <t>Frosted</t>
+  </si>
+  <si>
+    <t>Written By</t>
+  </si>
+  <si>
+    <t>Havana Grey</t>
+  </si>
+  <si>
+    <t>Exceed And Excel</t>
+  </si>
+  <si>
+    <t>Rich Enuff</t>
+  </si>
+  <si>
+    <t>Smart Missile</t>
+  </si>
+  <si>
+    <t>Fire Gully</t>
+  </si>
+  <si>
+    <t>Ma Can Do It</t>
+  </si>
+  <si>
+    <t>Buroog</t>
+  </si>
+  <si>
+    <t>Belhamage</t>
+  </si>
+  <si>
+    <t>Flavigny</t>
+  </si>
+  <si>
+    <t>Infra Dig</t>
+  </si>
+  <si>
+    <t>Sudden Wealth</t>
+  </si>
+  <si>
+    <t>Fair Maiden</t>
+  </si>
+  <si>
+    <t>Barbadine</t>
+  </si>
+  <si>
+    <t>Lilith</t>
+  </si>
+  <si>
+    <t>Harmony Hall</t>
+  </si>
+  <si>
+    <t>Rainbow</t>
+  </si>
+  <si>
+    <t>PPG</t>
+  </si>
+  <si>
+    <t>PP</t>
+  </si>
+  <si>
+    <t>2025/03/23</t>
+  </si>
+  <si>
+    <t>2024/07/14</t>
+  </si>
+  <si>
+    <t>2025/02/16</t>
+  </si>
+  <si>
+    <t>2025/03/15</t>
+  </si>
+  <si>
+    <t>2024/12/29</t>
+  </si>
+  <si>
+    <t>2025/01/31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">第四班 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">第三班 </t>
+  </si>
+  <si>
+    <t>布文</t>
+  </si>
+  <si>
+    <t>鍾易禮</t>
+  </si>
+  <si>
+    <t>湯普新</t>
+  </si>
+  <si>
+    <t>周俊樂</t>
+  </si>
+  <si>
+    <t>奧爾民</t>
+  </si>
+  <si>
+    <t>田泰安</t>
+  </si>
+  <si>
+    <t>黃寶妮</t>
+  </si>
+  <si>
+    <t>蔡明紹</t>
+  </si>
+  <si>
+    <t>董明朗</t>
+  </si>
+  <si>
+    <t>1:08.63</t>
+  </si>
+  <si>
+    <t>1:08.75</t>
+  </si>
+  <si>
+    <t>56.15</t>
+  </si>
+  <si>
+    <t>56.31</t>
+  </si>
+  <si>
+    <t>57.91</t>
+  </si>
+  <si>
+    <t>1:09.13</t>
+  </si>
+  <si>
+    <t>1:09.48</t>
+  </si>
+  <si>
+    <t>1:21.43</t>
+  </si>
+  <si>
+    <t>1:08.91</t>
+  </si>
+  <si>
+    <t>1:09.22</t>
+  </si>
+  <si>
+    <t>0:57.17</t>
+  </si>
+  <si>
+    <t>1:09.01</t>
+  </si>
+  <si>
+    <t>0:56.95</t>
+  </si>
+  <si>
+    <t>0:56.75</t>
+  </si>
+  <si>
+    <t>1:22.01</t>
+  </si>
+  <si>
+    <t>1:10.33</t>
+  </si>
+  <si>
+    <t>1:10.06</t>
+  </si>
+  <si>
+    <t>1:09.09</t>
+  </si>
+  <si>
+    <t>1:8.78</t>
+  </si>
+  <si>
+    <t>1:9.24</t>
+  </si>
+  <si>
+    <t>1:10.16</t>
+  </si>
+  <si>
+    <t>1:9.08</t>
+  </si>
+  <si>
+    <t>1:9.26</t>
+  </si>
+  <si>
+    <t>1:9.17</t>
+  </si>
+  <si>
+    <t>1:9.39</t>
+  </si>
+  <si>
+    <t>1:10.45</t>
+  </si>
+  <si>
+    <t>1:9.84</t>
+  </si>
+  <si>
+    <t>1:8.98</t>
+  </si>
+  <si>
+    <t>2024/04/14</t>
+  </si>
+  <si>
+    <t>2023/12/17</t>
+  </si>
+  <si>
+    <t>2025/02/23</t>
+  </si>
+  <si>
+    <t>艾兆禮</t>
+  </si>
+  <si>
+    <t>1:09.24</t>
+  </si>
+  <si>
+    <t>1:09.58</t>
+  </si>
+  <si>
+    <t>1:09.37</t>
+  </si>
+  <si>
+    <t>1:10.49</t>
+  </si>
+  <si>
+    <t>1:09.68</t>
+  </si>
+  <si>
+    <t>1:10.22</t>
+  </si>
+  <si>
+    <t>1:9.44</t>
+  </si>
+  <si>
+    <t>1:10.81</t>
+  </si>
+  <si>
+    <t>1:9.91</t>
+  </si>
+  <si>
+    <t>1:10.58</t>
+  </si>
+  <si>
+    <t>[23/03] 1200 布文 (2) 4.5</t>
+  </si>
+  <si>
+    <t>[14/07] 1200 鍾易禮 (2) 55.0</t>
+  </si>
+  <si>
+    <t>##[16/02] 1000 湯普新 (13) 151.0</t>
+  </si>
+  <si>
+    <t>[23/03] 1200 周俊樂 (4) 2.8</t>
+  </si>
+  <si>
+    <t>##[15/03] 1000 奧爾民 (8) 23.0</t>
+  </si>
+  <si>
+    <t>##[15/03] 1000 田泰安 (4) 5.5</t>
+  </si>
+  <si>
+    <t>##[23/03] 1400 黃寶妮 (8) 23.0</t>
+  </si>
+  <si>
+    <t>[29/12] 1200 蔡明紹 (13) 28.0</t>
+  </si>
+  <si>
+    <t>[31/01] 1200 董明朗 (7) 143.0</t>
+  </si>
+  <si>
+    <t>[23/03] 1200 奧爾民 (6) 87.0</t>
+  </si>
+  <si>
+    <t>[14/04] 1200 周俊樂 (6) 11.0</t>
+  </si>
+  <si>
+    <t>[17/12] 1200 蔡明紹 (10) 45.0</t>
+  </si>
+  <si>
+    <t>[23/02] 1200 周俊樂 (2) 13.0</t>
+  </si>
+  <si>
+    <t>[23/02] 1200 艾兆禮 (8) 19.0</t>
+  </si>
+  <si>
+    <t>1:9.11</t>
+  </si>
+  <si>
+    <t>1:10.03</t>
+  </si>
+  <si>
+    <t>1:9.5</t>
+  </si>
+  <si>
+    <t>1:9.78</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -171,11 +1026,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -470,13 +1326,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG1"/>
+  <dimension ref="A1:CU13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:99">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -575,6 +1431,2427 @@
       </c>
       <c r="AG1" s="1" t="s">
         <v>32</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="CH1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="CI1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="CJ1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="CK1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="CL1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="CM1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="CN1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="CO1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="CP1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="CQ1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="CR1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="CS1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="CT1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CU1" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:99">
+      <c r="A2" s="2">
+        <v>45760</v>
+      </c>
+      <c r="B2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C2">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F2" t="s">
+        <v>102</v>
+      </c>
+      <c r="G2">
+        <v>1200</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
+        <v>103</v>
+      </c>
+      <c r="J2" t="s">
+        <v>114</v>
+      </c>
+      <c r="K2" t="s">
+        <v>126</v>
+      </c>
+      <c r="L2">
+        <v>135</v>
+      </c>
+      <c r="M2" t="s">
+        <v>138</v>
+      </c>
+      <c r="O2">
+        <v>3</v>
+      </c>
+      <c r="P2" t="s">
+        <v>150</v>
+      </c>
+      <c r="R2">
+        <v>60</v>
+      </c>
+      <c r="S2" t="s">
+        <v>162</v>
+      </c>
+      <c r="U2" t="s">
+        <v>107</v>
+      </c>
+      <c r="V2" t="s">
+        <v>165</v>
+      </c>
+      <c r="W2">
+        <v>4</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>172</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>174</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>180</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>183</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>188</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>195</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>207</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>218</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>230</v>
+      </c>
+      <c r="AH2">
+        <v>2024527</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>232</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>238</v>
+      </c>
+      <c r="AK2">
+        <v>1200</v>
+      </c>
+      <c r="AL2">
+        <v>2</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>240</v>
+      </c>
+      <c r="AN2">
+        <v>4.5</v>
+      </c>
+      <c r="AO2">
+        <v>135</v>
+      </c>
+      <c r="AP2">
+        <v>0</v>
+      </c>
+      <c r="AQ2">
+        <v>6</v>
+      </c>
+      <c r="AR2">
+        <v>-3</v>
+      </c>
+      <c r="AS2">
+        <v>24.1</v>
+      </c>
+      <c r="AT2">
+        <v>46.13</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>249</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>257</v>
+      </c>
+      <c r="AZ2">
+        <v>24.3</v>
+      </c>
+      <c r="BA2">
+        <v>22.27</v>
+      </c>
+      <c r="BB2">
+        <v>22.34</v>
+      </c>
+      <c r="BF2">
+        <v>44.61</v>
+      </c>
+      <c r="BG2">
+        <v>-0.126</v>
+      </c>
+      <c r="BH2">
+        <v>44.484</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>267</v>
+      </c>
+      <c r="BJ2">
+        <v>2023582</v>
+      </c>
+      <c r="BK2" t="s">
+        <v>277</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>238</v>
+      </c>
+      <c r="BM2">
+        <v>1200</v>
+      </c>
+      <c r="BN2">
+        <v>6</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>243</v>
+      </c>
+      <c r="BP2">
+        <v>11</v>
+      </c>
+      <c r="BQ2">
+        <v>125</v>
+      </c>
+      <c r="BR2">
+        <v>10</v>
+      </c>
+      <c r="BS2">
+        <v>5</v>
+      </c>
+      <c r="BT2">
+        <v>-2</v>
+      </c>
+      <c r="BU2">
+        <v>24.01</v>
+      </c>
+      <c r="BV2">
+        <v>46.06</v>
+      </c>
+      <c r="BW2" t="s">
+        <v>260</v>
+      </c>
+      <c r="CA2" t="s">
+        <v>283</v>
+      </c>
+      <c r="CB2">
+        <v>24.57</v>
+      </c>
+      <c r="CC2">
+        <v>22.25</v>
+      </c>
+      <c r="CD2">
+        <v>22.55</v>
+      </c>
+      <c r="CH2">
+        <v>44.8</v>
+      </c>
+      <c r="CI2">
+        <v>0.06599999999999999</v>
+      </c>
+      <c r="CJ2">
+        <v>44.866</v>
+      </c>
+      <c r="CK2" t="s">
+        <v>287</v>
+      </c>
+      <c r="CL2" t="s">
+        <v>114</v>
+      </c>
+      <c r="CM2" t="s">
+        <v>267</v>
+      </c>
+      <c r="CN2" t="s">
+        <v>291</v>
+      </c>
+      <c r="CO2" t="s">
+        <v>287</v>
+      </c>
+      <c r="CP2" t="s">
+        <v>301</v>
+      </c>
+      <c r="CQ2" t="s">
+        <v>305</v>
+      </c>
+      <c r="CR2">
+        <v>68.78</v>
+      </c>
+      <c r="CS2">
+        <v>69.44</v>
+      </c>
+      <c r="CT2">
+        <v>69.11</v>
+      </c>
+      <c r="CU2">
+        <v>68.78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:99">
+      <c r="A3" s="2">
+        <v>45760</v>
+      </c>
+      <c r="B3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E3" t="s">
+        <v>101</v>
+      </c>
+      <c r="F3" t="s">
+        <v>102</v>
+      </c>
+      <c r="G3">
+        <v>1200</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="I3" t="s">
+        <v>104</v>
+      </c>
+      <c r="J3" t="s">
+        <v>115</v>
+      </c>
+      <c r="K3" t="s">
+        <v>127</v>
+      </c>
+      <c r="L3">
+        <v>132</v>
+      </c>
+      <c r="M3" t="s">
+        <v>139</v>
+      </c>
+      <c r="O3">
+        <v>5</v>
+      </c>
+      <c r="P3" t="s">
+        <v>151</v>
+      </c>
+      <c r="R3">
+        <v>57</v>
+      </c>
+      <c r="S3" t="s">
+        <v>163</v>
+      </c>
+      <c r="U3" t="s">
+        <v>107</v>
+      </c>
+      <c r="V3" t="s">
+        <v>166</v>
+      </c>
+      <c r="W3">
+        <v>5</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>172</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>175</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>181</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>184</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>189</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>196</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>208</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>219</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>231</v>
+      </c>
+      <c r="AH3">
+        <v>2023829</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>233</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>239</v>
+      </c>
+      <c r="AK3">
+        <v>1200</v>
+      </c>
+      <c r="AL3">
+        <v>2</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>241</v>
+      </c>
+      <c r="AN3">
+        <v>55</v>
+      </c>
+      <c r="AO3">
+        <v>117</v>
+      </c>
+      <c r="AP3">
+        <v>15</v>
+      </c>
+      <c r="AQ3">
+        <v>10</v>
+      </c>
+      <c r="AR3">
+        <v>-5</v>
+      </c>
+      <c r="AS3">
+        <v>23.27</v>
+      </c>
+      <c r="AT3">
+        <v>46.09</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>250</v>
+      </c>
+      <c r="AY3" t="s">
+        <v>258</v>
+      </c>
+      <c r="AZ3">
+        <v>24.51</v>
+      </c>
+      <c r="BA3">
+        <v>22.34</v>
+      </c>
+      <c r="BB3">
+        <v>22.37</v>
+      </c>
+      <c r="BF3">
+        <v>44.71</v>
+      </c>
+      <c r="BG3">
+        <v>0.01499999999999996</v>
+      </c>
+      <c r="BH3">
+        <v>44.725</v>
+      </c>
+      <c r="BI3" t="s">
+        <v>268</v>
+      </c>
+      <c r="BJ3">
+        <v>2023260</v>
+      </c>
+      <c r="BK3" t="s">
+        <v>278</v>
+      </c>
+      <c r="BL3" t="s">
+        <v>239</v>
+      </c>
+      <c r="BM3">
+        <v>1200</v>
+      </c>
+      <c r="BN3">
+        <v>10</v>
+      </c>
+      <c r="BO3" t="s">
+        <v>247</v>
+      </c>
+      <c r="BP3">
+        <v>45</v>
+      </c>
+      <c r="BQ3">
+        <v>122</v>
+      </c>
+      <c r="BR3">
+        <v>10</v>
+      </c>
+      <c r="BS3">
+        <v>1</v>
+      </c>
+      <c r="BT3">
+        <v>4</v>
+      </c>
+      <c r="BU3">
+        <v>23.54</v>
+      </c>
+      <c r="BV3">
+        <v>46.46</v>
+      </c>
+      <c r="BW3" t="s">
+        <v>281</v>
+      </c>
+      <c r="CA3" t="s">
+        <v>284</v>
+      </c>
+      <c r="CB3">
+        <v>24.46</v>
+      </c>
+      <c r="CC3">
+        <v>22.44</v>
+      </c>
+      <c r="CD3">
+        <v>23.59</v>
+      </c>
+      <c r="CH3">
+        <v>46.03</v>
+      </c>
+      <c r="CI3">
+        <v>0.318</v>
+      </c>
+      <c r="CJ3">
+        <v>46.348</v>
+      </c>
+      <c r="CK3" t="s">
+        <v>288</v>
+      </c>
+      <c r="CL3" t="s">
+        <v>115</v>
+      </c>
+      <c r="CM3" t="s">
+        <v>268</v>
+      </c>
+      <c r="CN3" t="s">
+        <v>292</v>
+      </c>
+      <c r="CO3" t="s">
+        <v>288</v>
+      </c>
+      <c r="CP3" t="s">
+        <v>302</v>
+      </c>
+      <c r="CQ3" t="s">
+        <v>306</v>
+      </c>
+      <c r="CR3">
+        <v>69.23999999999999</v>
+      </c>
+      <c r="CS3">
+        <v>70.81</v>
+      </c>
+      <c r="CT3">
+        <v>70.03</v>
+      </c>
+      <c r="CU3">
+        <v>69.23999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:99">
+      <c r="A4" s="2">
+        <v>45760</v>
+      </c>
+      <c r="B4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E4" t="s">
+        <v>101</v>
+      </c>
+      <c r="F4" t="s">
+        <v>102</v>
+      </c>
+      <c r="G4">
+        <v>1200</v>
+      </c>
+      <c r="H4">
+        <v>3</v>
+      </c>
+      <c r="I4" t="s">
+        <v>105</v>
+      </c>
+      <c r="J4" t="s">
+        <v>116</v>
+      </c>
+      <c r="K4" t="s">
+        <v>128</v>
+      </c>
+      <c r="L4">
+        <v>132</v>
+      </c>
+      <c r="M4" t="s">
+        <v>140</v>
+      </c>
+      <c r="O4">
+        <v>7</v>
+      </c>
+      <c r="P4" t="s">
+        <v>152</v>
+      </c>
+      <c r="R4">
+        <v>57</v>
+      </c>
+      <c r="S4" t="s">
+        <v>164</v>
+      </c>
+      <c r="U4" t="s">
+        <v>107</v>
+      </c>
+      <c r="V4" t="s">
+        <v>167</v>
+      </c>
+      <c r="W4">
+        <v>4</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>173</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>162</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>180</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>185</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>190</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>197</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>209</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>220</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>231</v>
+      </c>
+      <c r="AH4">
+        <v>2024435</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>234</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>239</v>
+      </c>
+      <c r="AK4">
+        <v>1000</v>
+      </c>
+      <c r="AL4">
+        <v>13</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>242</v>
+      </c>
+      <c r="AN4">
+        <v>151</v>
+      </c>
+      <c r="AO4">
+        <v>124</v>
+      </c>
+      <c r="AP4">
+        <v>8</v>
+      </c>
+      <c r="AQ4">
+        <v>5</v>
+      </c>
+      <c r="AR4">
+        <v>2</v>
+      </c>
+      <c r="AS4">
+        <v>13.05</v>
+      </c>
+      <c r="AT4">
+        <v>33.64</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>251</v>
+      </c>
+      <c r="AY4" t="s">
+        <v>259</v>
+      </c>
+      <c r="AZ4">
+        <v>13.45</v>
+      </c>
+      <c r="BA4">
+        <v>20.83</v>
+      </c>
+      <c r="BB4">
+        <v>22.89</v>
+      </c>
+      <c r="BF4">
+        <v>43.72</v>
+      </c>
+      <c r="BG4">
+        <v>0.204</v>
+      </c>
+      <c r="BH4">
+        <v>43.924</v>
+      </c>
+      <c r="BI4" t="s">
+        <v>269</v>
+      </c>
+      <c r="CL4" t="s">
+        <v>116</v>
+      </c>
+      <c r="CM4" t="s">
+        <v>269</v>
+      </c>
+      <c r="CN4" t="s">
+        <v>293</v>
+      </c>
+      <c r="CQ4" t="s">
+        <v>269</v>
+      </c>
+      <c r="CR4">
+        <v>70.16</v>
+      </c>
+      <c r="CT4">
+        <v>70.16</v>
+      </c>
+      <c r="CU4">
+        <v>70.16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:99">
+      <c r="A5" s="2">
+        <v>45760</v>
+      </c>
+      <c r="B5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E5" t="s">
+        <v>101</v>
+      </c>
+      <c r="F5" t="s">
+        <v>102</v>
+      </c>
+      <c r="G5">
+        <v>1200</v>
+      </c>
+      <c r="H5">
+        <v>4</v>
+      </c>
+      <c r="I5" t="s">
+        <v>106</v>
+      </c>
+      <c r="J5" t="s">
+        <v>117</v>
+      </c>
+      <c r="K5" t="s">
+        <v>129</v>
+      </c>
+      <c r="L5">
+        <v>129</v>
+      </c>
+      <c r="M5" t="s">
+        <v>141</v>
+      </c>
+      <c r="O5">
+        <v>12</v>
+      </c>
+      <c r="P5" t="s">
+        <v>153</v>
+      </c>
+      <c r="R5">
+        <v>54</v>
+      </c>
+      <c r="S5" t="s">
+        <v>162</v>
+      </c>
+      <c r="U5" t="s">
+        <v>107</v>
+      </c>
+      <c r="V5" t="s">
+        <v>168</v>
+      </c>
+      <c r="W5">
+        <v>3</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>172</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>176</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>181</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>183</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>198</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>210</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>221</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>230</v>
+      </c>
+      <c r="AH5">
+        <v>2024527</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>232</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>238</v>
+      </c>
+      <c r="AK5">
+        <v>1200</v>
+      </c>
+      <c r="AL5">
+        <v>4</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>243</v>
+      </c>
+      <c r="AN5">
+        <v>2.8</v>
+      </c>
+      <c r="AO5">
+        <v>127</v>
+      </c>
+      <c r="AP5">
+        <v>2</v>
+      </c>
+      <c r="AQ5">
+        <v>11</v>
+      </c>
+      <c r="AR5">
+        <v>1</v>
+      </c>
+      <c r="AS5">
+        <v>24.1</v>
+      </c>
+      <c r="AT5">
+        <v>46.13</v>
+      </c>
+      <c r="AU5" t="s">
+        <v>249</v>
+      </c>
+      <c r="AY5" t="s">
+        <v>260</v>
+      </c>
+      <c r="AZ5">
+        <v>24.74</v>
+      </c>
+      <c r="BA5">
+        <v>22.27</v>
+      </c>
+      <c r="BB5">
+        <v>22</v>
+      </c>
+      <c r="BF5">
+        <v>44.27</v>
+      </c>
+      <c r="BG5">
+        <v>0.07200000000000001</v>
+      </c>
+      <c r="BH5">
+        <v>44.34200000000001</v>
+      </c>
+      <c r="BI5" t="s">
+        <v>270</v>
+      </c>
+      <c r="BJ5">
+        <v>2024450</v>
+      </c>
+      <c r="BK5" t="s">
+        <v>279</v>
+      </c>
+      <c r="BL5" t="s">
+        <v>238</v>
+      </c>
+      <c r="BM5">
+        <v>1200</v>
+      </c>
+      <c r="BN5">
+        <v>2</v>
+      </c>
+      <c r="BO5" t="s">
+        <v>243</v>
+      </c>
+      <c r="BP5">
+        <v>13</v>
+      </c>
+      <c r="BQ5">
+        <v>125</v>
+      </c>
+      <c r="BR5">
+        <v>4</v>
+      </c>
+      <c r="BS5">
+        <v>8</v>
+      </c>
+      <c r="BT5">
+        <v>4</v>
+      </c>
+      <c r="BU5">
+        <v>23.97</v>
+      </c>
+      <c r="BV5">
+        <v>46.75</v>
+      </c>
+      <c r="BW5" t="s">
+        <v>282</v>
+      </c>
+      <c r="CA5" t="s">
+        <v>285</v>
+      </c>
+      <c r="CB5">
+        <v>24.65</v>
+      </c>
+      <c r="CC5">
+        <v>22.82</v>
+      </c>
+      <c r="CD5">
+        <v>22.21</v>
+      </c>
+      <c r="CH5">
+        <v>45.03</v>
+      </c>
+      <c r="CI5">
+        <v>0.228</v>
+      </c>
+      <c r="CJ5">
+        <v>45.258</v>
+      </c>
+      <c r="CK5" t="s">
+        <v>289</v>
+      </c>
+      <c r="CL5" t="s">
+        <v>117</v>
+      </c>
+      <c r="CM5" t="s">
+        <v>270</v>
+      </c>
+      <c r="CN5" t="s">
+        <v>294</v>
+      </c>
+      <c r="CO5" t="s">
+        <v>289</v>
+      </c>
+      <c r="CP5" t="s">
+        <v>303</v>
+      </c>
+      <c r="CQ5" t="s">
+        <v>307</v>
+      </c>
+      <c r="CR5">
+        <v>69.08</v>
+      </c>
+      <c r="CS5">
+        <v>69.91</v>
+      </c>
+      <c r="CT5">
+        <v>69.5</v>
+      </c>
+      <c r="CU5">
+        <v>69.08</v>
+      </c>
+    </row>
+    <row r="6" spans="1:99">
+      <c r="A6" s="2">
+        <v>45760</v>
+      </c>
+      <c r="B6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>100</v>
+      </c>
+      <c r="E6" t="s">
+        <v>101</v>
+      </c>
+      <c r="F6" t="s">
+        <v>102</v>
+      </c>
+      <c r="G6">
+        <v>1200</v>
+      </c>
+      <c r="H6">
+        <v>5</v>
+      </c>
+      <c r="I6" t="s">
+        <v>107</v>
+      </c>
+      <c r="J6" t="s">
+        <v>118</v>
+      </c>
+      <c r="K6" t="s">
+        <v>130</v>
+      </c>
+      <c r="L6">
+        <v>127</v>
+      </c>
+      <c r="M6" t="s">
+        <v>142</v>
+      </c>
+      <c r="O6">
+        <v>10</v>
+      </c>
+      <c r="P6" t="s">
+        <v>154</v>
+      </c>
+      <c r="R6">
+        <v>52</v>
+      </c>
+      <c r="S6" t="s">
+        <v>107</v>
+      </c>
+      <c r="U6" t="s">
+        <v>107</v>
+      </c>
+      <c r="W6">
+        <v>3</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>172</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>162</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>182</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>107</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>191</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>199</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>211</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>222</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>230</v>
+      </c>
+      <c r="CL6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="7" spans="1:99">
+      <c r="A7" s="2">
+        <v>45760</v>
+      </c>
+      <c r="B7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G7">
+        <v>1200</v>
+      </c>
+      <c r="H7">
+        <v>6</v>
+      </c>
+      <c r="I7" t="s">
+        <v>108</v>
+      </c>
+      <c r="J7" t="s">
+        <v>119</v>
+      </c>
+      <c r="K7" t="s">
+        <v>131</v>
+      </c>
+      <c r="L7">
+        <v>127</v>
+      </c>
+      <c r="M7" t="s">
+        <v>143</v>
+      </c>
+      <c r="O7">
+        <v>4</v>
+      </c>
+      <c r="P7" t="s">
+        <v>155</v>
+      </c>
+      <c r="R7">
+        <v>52</v>
+      </c>
+      <c r="S7" t="s">
+        <v>162</v>
+      </c>
+      <c r="U7" t="s">
+        <v>107</v>
+      </c>
+      <c r="W7">
+        <v>3</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>172</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>162</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>180</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>186</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>200</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>212</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>223</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>230</v>
+      </c>
+      <c r="AH7">
+        <v>2024507</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>235</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>238</v>
+      </c>
+      <c r="AK7">
+        <v>1000</v>
+      </c>
+      <c r="AL7">
+        <v>8</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>244</v>
+      </c>
+      <c r="AN7">
+        <v>23</v>
+      </c>
+      <c r="AO7">
+        <v>128</v>
+      </c>
+      <c r="AP7">
+        <v>-1</v>
+      </c>
+      <c r="AQ7">
+        <v>11</v>
+      </c>
+      <c r="AR7">
+        <v>-7</v>
+      </c>
+      <c r="AS7">
+        <v>12.96</v>
+      </c>
+      <c r="AT7">
+        <v>33.53</v>
+      </c>
+      <c r="AU7" t="s">
+        <v>252</v>
+      </c>
+      <c r="AY7" t="s">
+        <v>261</v>
+      </c>
+      <c r="AZ7">
+        <v>13.52</v>
+      </c>
+      <c r="BA7">
+        <v>20.65</v>
+      </c>
+      <c r="BB7">
+        <v>22.78</v>
+      </c>
+      <c r="BF7">
+        <v>43.43</v>
+      </c>
+      <c r="BG7">
+        <v>-0.3090000000000001</v>
+      </c>
+      <c r="BH7">
+        <v>43.121</v>
+      </c>
+      <c r="BI7" t="s">
+        <v>271</v>
+      </c>
+      <c r="CL7" t="s">
+        <v>119</v>
+      </c>
+      <c r="CM7" t="s">
+        <v>271</v>
+      </c>
+      <c r="CN7" t="s">
+        <v>295</v>
+      </c>
+      <c r="CQ7" t="s">
+        <v>271</v>
+      </c>
+      <c r="CR7">
+        <v>69.26000000000001</v>
+      </c>
+      <c r="CT7">
+        <v>69.26000000000001</v>
+      </c>
+      <c r="CU7">
+        <v>69.26000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:99">
+      <c r="A8" s="2">
+        <v>45760</v>
+      </c>
+      <c r="B8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>100</v>
+      </c>
+      <c r="E8" t="s">
+        <v>101</v>
+      </c>
+      <c r="F8" t="s">
+        <v>102</v>
+      </c>
+      <c r="G8">
+        <v>1200</v>
+      </c>
+      <c r="H8">
+        <v>7</v>
+      </c>
+      <c r="I8" t="s">
+        <v>109</v>
+      </c>
+      <c r="J8" t="s">
+        <v>120</v>
+      </c>
+      <c r="K8" t="s">
+        <v>132</v>
+      </c>
+      <c r="L8">
+        <v>127</v>
+      </c>
+      <c r="M8" t="s">
+        <v>144</v>
+      </c>
+      <c r="O8">
+        <v>2</v>
+      </c>
+      <c r="P8" t="s">
+        <v>156</v>
+      </c>
+      <c r="R8">
+        <v>52</v>
+      </c>
+      <c r="S8" t="s">
+        <v>162</v>
+      </c>
+      <c r="U8" t="s">
+        <v>107</v>
+      </c>
+      <c r="W8">
+        <v>3</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>172</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>175</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>181</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>186</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>201</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>213</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>224</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>230</v>
+      </c>
+      <c r="AH8">
+        <v>2024507</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>235</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>238</v>
+      </c>
+      <c r="AK8">
+        <v>1000</v>
+      </c>
+      <c r="AL8">
+        <v>4</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>245</v>
+      </c>
+      <c r="AN8">
+        <v>5.5</v>
+      </c>
+      <c r="AO8">
+        <v>128</v>
+      </c>
+      <c r="AP8">
+        <v>-1</v>
+      </c>
+      <c r="AQ8">
+        <v>6</v>
+      </c>
+      <c r="AR8">
+        <v>-4</v>
+      </c>
+      <c r="AS8">
+        <v>12.96</v>
+      </c>
+      <c r="AT8">
+        <v>33.53</v>
+      </c>
+      <c r="AU8" t="s">
+        <v>252</v>
+      </c>
+      <c r="AY8" t="s">
+        <v>262</v>
+      </c>
+      <c r="AZ8">
+        <v>13.12</v>
+      </c>
+      <c r="BA8">
+        <v>20.53</v>
+      </c>
+      <c r="BB8">
+        <v>23.1</v>
+      </c>
+      <c r="BF8">
+        <v>43.63</v>
+      </c>
+      <c r="BG8">
+        <v>-0.183</v>
+      </c>
+      <c r="BH8">
+        <v>43.447</v>
+      </c>
+      <c r="BI8" t="s">
+        <v>272</v>
+      </c>
+      <c r="CL8" t="s">
+        <v>120</v>
+      </c>
+      <c r="CM8" t="s">
+        <v>272</v>
+      </c>
+      <c r="CN8" t="s">
+        <v>296</v>
+      </c>
+      <c r="CQ8" t="s">
+        <v>272</v>
+      </c>
+      <c r="CR8">
+        <v>69.17</v>
+      </c>
+      <c r="CT8">
+        <v>69.17</v>
+      </c>
+      <c r="CU8">
+        <v>69.17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:99">
+      <c r="A9" s="2">
+        <v>45760</v>
+      </c>
+      <c r="B9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>100</v>
+      </c>
+      <c r="E9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F9" t="s">
+        <v>102</v>
+      </c>
+      <c r="G9">
+        <v>1200</v>
+      </c>
+      <c r="H9">
+        <v>8</v>
+      </c>
+      <c r="I9" t="s">
+        <v>110</v>
+      </c>
+      <c r="J9" t="s">
+        <v>121</v>
+      </c>
+      <c r="K9" t="s">
+        <v>133</v>
+      </c>
+      <c r="L9">
+        <v>127</v>
+      </c>
+      <c r="M9" t="s">
+        <v>145</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
+      <c r="P9" t="s">
+        <v>157</v>
+      </c>
+      <c r="R9">
+        <v>52</v>
+      </c>
+      <c r="S9" t="s">
+        <v>163</v>
+      </c>
+      <c r="U9" t="s">
+        <v>107</v>
+      </c>
+      <c r="W9">
+        <v>5</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>172</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>177</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>180</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>183</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>192</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>202</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>214</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>225</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>231</v>
+      </c>
+      <c r="AH9">
+        <v>2024526</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>232</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>238</v>
+      </c>
+      <c r="AK9">
+        <v>1400</v>
+      </c>
+      <c r="AL9">
+        <v>8</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>246</v>
+      </c>
+      <c r="AN9">
+        <v>23</v>
+      </c>
+      <c r="AO9">
+        <v>119</v>
+      </c>
+      <c r="AP9">
+        <v>8</v>
+      </c>
+      <c r="AQ9">
+        <v>2</v>
+      </c>
+      <c r="AR9">
+        <v>-1</v>
+      </c>
+      <c r="AS9">
+        <v>13.39</v>
+      </c>
+      <c r="AT9">
+        <v>34.78</v>
+      </c>
+      <c r="AU9" t="s">
+        <v>253</v>
+      </c>
+      <c r="AV9" t="s">
+        <v>256</v>
+      </c>
+      <c r="AY9" t="s">
+        <v>263</v>
+      </c>
+      <c r="AZ9">
+        <v>13.39</v>
+      </c>
+      <c r="BA9">
+        <v>21.39</v>
+      </c>
+      <c r="BB9">
+        <v>23.13</v>
+      </c>
+      <c r="BC9">
+        <v>24.1</v>
+      </c>
+      <c r="BF9">
+        <v>47.23</v>
+      </c>
+      <c r="BG9">
+        <v>0.07799999999999999</v>
+      </c>
+      <c r="BH9">
+        <v>47.308</v>
+      </c>
+      <c r="BI9" t="s">
+        <v>273</v>
+      </c>
+      <c r="CL9" t="s">
+        <v>121</v>
+      </c>
+      <c r="CM9" t="s">
+        <v>273</v>
+      </c>
+      <c r="CN9" t="s">
+        <v>297</v>
+      </c>
+      <c r="CQ9" t="s">
+        <v>273</v>
+      </c>
+      <c r="CR9">
+        <v>69.39</v>
+      </c>
+      <c r="CT9">
+        <v>69.39</v>
+      </c>
+      <c r="CU9">
+        <v>69.39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:99">
+      <c r="A10" s="2">
+        <v>45760</v>
+      </c>
+      <c r="B10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>100</v>
+      </c>
+      <c r="E10" t="s">
+        <v>101</v>
+      </c>
+      <c r="F10" t="s">
+        <v>102</v>
+      </c>
+      <c r="G10">
+        <v>1200</v>
+      </c>
+      <c r="H10">
+        <v>9</v>
+      </c>
+      <c r="I10" t="s">
+        <v>107</v>
+      </c>
+      <c r="J10" t="s">
+        <v>122</v>
+      </c>
+      <c r="K10" t="s">
+        <v>134</v>
+      </c>
+      <c r="L10">
+        <v>127</v>
+      </c>
+      <c r="M10" t="s">
+        <v>146</v>
+      </c>
+      <c r="O10">
+        <v>9</v>
+      </c>
+      <c r="P10" t="s">
+        <v>158</v>
+      </c>
+      <c r="R10">
+        <v>52</v>
+      </c>
+      <c r="S10" t="s">
+        <v>107</v>
+      </c>
+      <c r="U10" t="s">
+        <v>107</v>
+      </c>
+      <c r="W10">
+        <v>3</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>172</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>162</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>180</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>107</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>193</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>203</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>215</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>226</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>230</v>
+      </c>
+      <c r="CL10" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="11" spans="1:99">
+      <c r="A11" s="2">
+        <v>45760</v>
+      </c>
+      <c r="B11" t="s">
+        <v>99</v>
+      </c>
+      <c r="C11">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E11" t="s">
+        <v>101</v>
+      </c>
+      <c r="F11" t="s">
+        <v>102</v>
+      </c>
+      <c r="G11">
+        <v>1200</v>
+      </c>
+      <c r="H11">
+        <v>10</v>
+      </c>
+      <c r="I11" t="s">
+        <v>111</v>
+      </c>
+      <c r="J11" t="s">
+        <v>123</v>
+      </c>
+      <c r="K11" t="s">
+        <v>135</v>
+      </c>
+      <c r="L11">
+        <v>124</v>
+      </c>
+      <c r="M11" t="s">
+        <v>147</v>
+      </c>
+      <c r="O11">
+        <v>6</v>
+      </c>
+      <c r="P11" t="s">
+        <v>159</v>
+      </c>
+      <c r="R11">
+        <v>49</v>
+      </c>
+      <c r="S11" t="s">
+        <v>163</v>
+      </c>
+      <c r="U11" t="s">
+        <v>107</v>
+      </c>
+      <c r="V11" t="s">
+        <v>169</v>
+      </c>
+      <c r="W11">
+        <v>3</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>172</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>178</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>181</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>185</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>194</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>204</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>208</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>227</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>230</v>
+      </c>
+      <c r="AH11">
+        <v>2024301</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>236</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>238</v>
+      </c>
+      <c r="AK11">
+        <v>1200</v>
+      </c>
+      <c r="AL11">
+        <v>13</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>247</v>
+      </c>
+      <c r="AN11">
+        <v>28</v>
+      </c>
+      <c r="AO11">
+        <v>127</v>
+      </c>
+      <c r="AP11">
+        <v>-3</v>
+      </c>
+      <c r="AQ11">
+        <v>2</v>
+      </c>
+      <c r="AR11">
+        <v>4</v>
+      </c>
+      <c r="AS11">
+        <v>23.67</v>
+      </c>
+      <c r="AT11">
+        <v>46.1</v>
+      </c>
+      <c r="AU11" t="s">
+        <v>254</v>
+      </c>
+      <c r="AY11" t="s">
+        <v>264</v>
+      </c>
+      <c r="AZ11">
+        <v>24.27</v>
+      </c>
+      <c r="BA11">
+        <v>22.35</v>
+      </c>
+      <c r="BB11">
+        <v>23.71</v>
+      </c>
+      <c r="BF11">
+        <v>46.06</v>
+      </c>
+      <c r="BG11">
+        <v>0.123</v>
+      </c>
+      <c r="BH11">
+        <v>46.183</v>
+      </c>
+      <c r="BI11" t="s">
+        <v>274</v>
+      </c>
+      <c r="CL11" t="s">
+        <v>123</v>
+      </c>
+      <c r="CM11" t="s">
+        <v>274</v>
+      </c>
+      <c r="CN11" t="s">
+        <v>298</v>
+      </c>
+      <c r="CQ11" t="s">
+        <v>274</v>
+      </c>
+      <c r="CR11">
+        <v>70.45</v>
+      </c>
+      <c r="CT11">
+        <v>70.45</v>
+      </c>
+      <c r="CU11">
+        <v>70.45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:99">
+      <c r="A12" s="2">
+        <v>45760</v>
+      </c>
+      <c r="B12" t="s">
+        <v>99</v>
+      </c>
+      <c r="C12">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
+        <v>100</v>
+      </c>
+      <c r="E12" t="s">
+        <v>101</v>
+      </c>
+      <c r="F12" t="s">
+        <v>102</v>
+      </c>
+      <c r="G12">
+        <v>1200</v>
+      </c>
+      <c r="H12">
+        <v>11</v>
+      </c>
+      <c r="I12" t="s">
+        <v>112</v>
+      </c>
+      <c r="J12" t="s">
+        <v>124</v>
+      </c>
+      <c r="K12" t="s">
+        <v>136</v>
+      </c>
+      <c r="L12">
+        <v>124</v>
+      </c>
+      <c r="M12" t="s">
+        <v>148</v>
+      </c>
+      <c r="O12">
+        <v>8</v>
+      </c>
+      <c r="P12" t="s">
+        <v>160</v>
+      </c>
+      <c r="R12">
+        <v>49</v>
+      </c>
+      <c r="S12" t="s">
+        <v>163</v>
+      </c>
+      <c r="U12" t="s">
+        <v>107</v>
+      </c>
+      <c r="V12" t="s">
+        <v>170</v>
+      </c>
+      <c r="W12">
+        <v>4</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>172</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>162</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>180</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>187</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>205</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>216</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>228</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>230</v>
+      </c>
+      <c r="AH12">
+        <v>2024393</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>237</v>
+      </c>
+      <c r="AJ12" t="s">
+        <v>238</v>
+      </c>
+      <c r="AK12">
+        <v>1200</v>
+      </c>
+      <c r="AL12">
+        <v>7</v>
+      </c>
+      <c r="AM12" t="s">
+        <v>248</v>
+      </c>
+      <c r="AN12">
+        <v>143</v>
+      </c>
+      <c r="AO12">
+        <v>130</v>
+      </c>
+      <c r="AP12">
+        <v>-6</v>
+      </c>
+      <c r="AQ12">
+        <v>11</v>
+      </c>
+      <c r="AR12">
+        <v>-3</v>
+      </c>
+      <c r="AS12">
+        <v>23.85</v>
+      </c>
+      <c r="AT12">
+        <v>46.23</v>
+      </c>
+      <c r="AU12" t="s">
+        <v>255</v>
+      </c>
+      <c r="AY12" t="s">
+        <v>265</v>
+      </c>
+      <c r="AZ12">
+        <v>25.05</v>
+      </c>
+      <c r="BA12">
+        <v>22.3</v>
+      </c>
+      <c r="BB12">
+        <v>22.71</v>
+      </c>
+      <c r="BF12">
+        <v>45.01</v>
+      </c>
+      <c r="BG12">
+        <v>-0.216</v>
+      </c>
+      <c r="BH12">
+        <v>44.794</v>
+      </c>
+      <c r="BI12" t="s">
+        <v>275</v>
+      </c>
+      <c r="CL12" t="s">
+        <v>124</v>
+      </c>
+      <c r="CM12" t="s">
+        <v>275</v>
+      </c>
+      <c r="CN12" t="s">
+        <v>299</v>
+      </c>
+      <c r="CQ12" t="s">
+        <v>275</v>
+      </c>
+      <c r="CR12">
+        <v>69.84</v>
+      </c>
+      <c r="CT12">
+        <v>69.84</v>
+      </c>
+      <c r="CU12">
+        <v>69.84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:99">
+      <c r="A13" s="2">
+        <v>45760</v>
+      </c>
+      <c r="B13" t="s">
+        <v>99</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
+      <c r="D13" t="s">
+        <v>100</v>
+      </c>
+      <c r="E13" t="s">
+        <v>101</v>
+      </c>
+      <c r="F13" t="s">
+        <v>102</v>
+      </c>
+      <c r="G13">
+        <v>1200</v>
+      </c>
+      <c r="H13">
+        <v>12</v>
+      </c>
+      <c r="I13" t="s">
+        <v>113</v>
+      </c>
+      <c r="J13" t="s">
+        <v>125</v>
+      </c>
+      <c r="K13" t="s">
+        <v>137</v>
+      </c>
+      <c r="L13">
+        <v>123</v>
+      </c>
+      <c r="M13" t="s">
+        <v>149</v>
+      </c>
+      <c r="O13">
+        <v>11</v>
+      </c>
+      <c r="P13" t="s">
+        <v>161</v>
+      </c>
+      <c r="R13">
+        <v>48</v>
+      </c>
+      <c r="S13" t="s">
+        <v>163</v>
+      </c>
+      <c r="U13" t="s">
+        <v>107</v>
+      </c>
+      <c r="V13" t="s">
+        <v>171</v>
+      </c>
+      <c r="W13">
+        <v>4</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>172</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>179</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>180</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>183</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>188</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>206</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>217</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>229</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>231</v>
+      </c>
+      <c r="AH13">
+        <v>2024527</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>232</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>238</v>
+      </c>
+      <c r="AK13">
+        <v>1200</v>
+      </c>
+      <c r="AL13">
+        <v>6</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>244</v>
+      </c>
+      <c r="AN13">
+        <v>87</v>
+      </c>
+      <c r="AO13">
+        <v>125</v>
+      </c>
+      <c r="AP13">
+        <v>-2</v>
+      </c>
+      <c r="AQ13">
+        <v>13</v>
+      </c>
+      <c r="AR13">
+        <v>-2</v>
+      </c>
+      <c r="AS13">
+        <v>24.1</v>
+      </c>
+      <c r="AT13">
+        <v>46.13</v>
+      </c>
+      <c r="AU13" t="s">
+        <v>249</v>
+      </c>
+      <c r="AY13" t="s">
+        <v>266</v>
+      </c>
+      <c r="AZ13">
+        <v>25.1</v>
+      </c>
+      <c r="BA13">
+        <v>22.03</v>
+      </c>
+      <c r="BB13">
+        <v>21.96</v>
+      </c>
+      <c r="BF13">
+        <v>43.99</v>
+      </c>
+      <c r="BG13">
+        <v>-0.114</v>
+      </c>
+      <c r="BH13">
+        <v>43.876</v>
+      </c>
+      <c r="BI13" t="s">
+        <v>276</v>
+      </c>
+      <c r="BJ13">
+        <v>2024450</v>
+      </c>
+      <c r="BK13" t="s">
+        <v>279</v>
+      </c>
+      <c r="BL13" t="s">
+        <v>238</v>
+      </c>
+      <c r="BM13">
+        <v>1200</v>
+      </c>
+      <c r="BN13">
+        <v>8</v>
+      </c>
+      <c r="BO13" t="s">
+        <v>280</v>
+      </c>
+      <c r="BP13">
+        <v>19</v>
+      </c>
+      <c r="BQ13">
+        <v>127</v>
+      </c>
+      <c r="BR13">
+        <v>-4</v>
+      </c>
+      <c r="BS13">
+        <v>1</v>
+      </c>
+      <c r="BT13">
+        <v>10</v>
+      </c>
+      <c r="BU13">
+        <v>23.97</v>
+      </c>
+      <c r="BV13">
+        <v>46.75</v>
+      </c>
+      <c r="BW13" t="s">
+        <v>282</v>
+      </c>
+      <c r="CA13" t="s">
+        <v>286</v>
+      </c>
+      <c r="CB13">
+        <v>24.57</v>
+      </c>
+      <c r="CC13">
+        <v>22.66</v>
+      </c>
+      <c r="CD13">
+        <v>22.99</v>
+      </c>
+      <c r="CH13">
+        <v>45.65</v>
+      </c>
+      <c r="CI13">
+        <v>0.36</v>
+      </c>
+      <c r="CJ13">
+        <v>46.01</v>
+      </c>
+      <c r="CK13" t="s">
+        <v>290</v>
+      </c>
+      <c r="CL13" t="s">
+        <v>125</v>
+      </c>
+      <c r="CM13" t="s">
+        <v>276</v>
+      </c>
+      <c r="CN13" t="s">
+        <v>300</v>
+      </c>
+      <c r="CO13" t="s">
+        <v>290</v>
+      </c>
+      <c r="CP13" t="s">
+        <v>304</v>
+      </c>
+      <c r="CQ13" t="s">
+        <v>308</v>
+      </c>
+      <c r="CR13">
+        <v>68.98</v>
+      </c>
+      <c r="CS13">
+        <v>70.58</v>
+      </c>
+      <c r="CT13">
+        <v>69.78</v>
+      </c>
+      <c r="CU13">
+        <v>68.98</v>
       </c>
     </row>
   </sheetData>
